--- a/output/nzethnicity.xlsx
+++ b/output/nzethnicity.xlsx
@@ -148,7 +148,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>N/A</t>
